--- a/тест главная страница.xlsx
+++ b/тест главная страница.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
   <si>
     <t>passed</t>
   </si>
@@ -509,7 +509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -602,9 +602,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -620,6 +617,21 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -634,21 +646,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -988,7 +985,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1044,10 +1041,10 @@
   <dimension ref="A1:DT61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1136,7 +1133,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="17">
         <f>COUNTIF(L$8:L$42,"passed")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="17">
@@ -1263,43 +1260,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="47" t="s">
+      <c r="F6" s="46"/>
+      <c r="G6" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="50"/>
+      <c r="J6" s="42"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="49" t="s">
+      <c r="L6" s="41" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="49" t="s">
+      <c r="N6" s="41" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="49"/>
+      <c r="P6" s="41"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="49"/>
+      <c r="R6" s="41"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="49"/>
+      <c r="T6" s="41"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1309,29 +1306,29 @@
     </row>
     <row r="7" spans="1:124" ht="102" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="43"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="51"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="43"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="49"/>
+      <c r="L7" s="41"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="49"/>
+      <c r="N7" s="41"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="49"/>
+      <c r="P7" s="41"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="49"/>
+      <c r="R7" s="41"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="49"/>
+      <c r="T7" s="41"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1344,7 +1341,7 @@
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="40" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1361,7 +1358,9 @@
       <c r="I8" s="21"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="6"/>
       <c r="O8" s="11"/>
@@ -1400,7 +1399,9 @@
       <c r="I9" s="28"/>
       <c r="J9" s="20"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="11"/>
       <c r="N9" s="6"/>
       <c r="O9" s="11"/>
@@ -1436,7 +1437,9 @@
       <c r="I10" s="21"/>
       <c r="J10" s="20"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="11"/>
       <c r="N10" s="6"/>
       <c r="O10" s="11"/>
@@ -1472,119 +1475,121 @@
       <c r="I11" s="32"/>
       <c r="J11" s="31"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="35"/>
-      <c r="AE11" s="36"/>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="35"/>
-      <c r="AI11" s="36"/>
-      <c r="AJ11" s="35"/>
-      <c r="AK11" s="36"/>
-      <c r="AL11" s="35"/>
-      <c r="AM11" s="36"/>
-      <c r="AN11" s="35"/>
-      <c r="AO11" s="36"/>
-      <c r="AP11" s="35"/>
-      <c r="AQ11" s="36"/>
-      <c r="AR11" s="35"/>
-      <c r="AS11" s="36"/>
-      <c r="AT11" s="35"/>
-      <c r="AU11" s="36"/>
-      <c r="AV11" s="35"/>
-      <c r="AW11" s="36"/>
-      <c r="AX11" s="35"/>
-      <c r="AY11" s="36"/>
-      <c r="AZ11" s="35"/>
-      <c r="BA11" s="36"/>
-      <c r="BB11" s="35"/>
-      <c r="BC11" s="36"/>
-      <c r="BD11" s="35"/>
-      <c r="BE11" s="36"/>
-      <c r="BF11" s="35"/>
-      <c r="BG11" s="36"/>
-      <c r="BH11" s="35"/>
-      <c r="BI11" s="36"/>
-      <c r="BJ11" s="35"/>
-      <c r="BK11" s="36"/>
-      <c r="BL11" s="35"/>
-      <c r="BM11" s="36"/>
-      <c r="BN11" s="35"/>
-      <c r="BO11" s="36"/>
-      <c r="BP11" s="35"/>
-      <c r="BQ11" s="36"/>
-      <c r="BR11" s="35"/>
-      <c r="BS11" s="36"/>
-      <c r="BT11" s="35"/>
-      <c r="BU11" s="36"/>
-      <c r="BV11" s="35"/>
-      <c r="BW11" s="36"/>
-      <c r="BX11" s="35"/>
-      <c r="BY11" s="36"/>
-      <c r="BZ11" s="37"/>
-      <c r="CA11" s="36"/>
-      <c r="CB11" s="35"/>
-      <c r="CC11" s="36"/>
-      <c r="CD11" s="38"/>
-      <c r="CE11" s="36"/>
-      <c r="CF11" s="35"/>
-      <c r="CG11" s="36"/>
-      <c r="CH11" s="37"/>
-      <c r="CI11" s="36"/>
-      <c r="CJ11" s="35"/>
-      <c r="CK11" s="36"/>
-      <c r="CL11" s="35"/>
-      <c r="CM11" s="36"/>
-      <c r="CN11" s="35"/>
-      <c r="CO11" s="36"/>
-      <c r="CP11" s="35"/>
-      <c r="CQ11" s="36"/>
-      <c r="CR11" s="35"/>
-      <c r="CS11" s="36"/>
-      <c r="CT11" s="35"/>
-      <c r="CU11" s="36"/>
-      <c r="CV11" s="35"/>
-      <c r="CW11" s="36"/>
-      <c r="CX11" s="35"/>
-      <c r="CY11" s="34"/>
-      <c r="CZ11" s="35"/>
-      <c r="DA11" s="34"/>
-      <c r="DB11" s="35"/>
-      <c r="DC11" s="34"/>
-      <c r="DD11" s="35"/>
-      <c r="DE11" s="34"/>
-      <c r="DF11" s="35"/>
-      <c r="DG11" s="34"/>
-      <c r="DH11" s="35"/>
-      <c r="DI11" s="34"/>
-      <c r="DJ11" s="35"/>
-      <c r="DK11" s="35"/>
-      <c r="DL11" s="35"/>
-      <c r="DM11" s="35"/>
-      <c r="DN11" s="39"/>
-      <c r="DO11" s="35"/>
-      <c r="DP11" s="40"/>
-      <c r="DQ11" s="40"/>
-      <c r="DR11" s="40"/>
-      <c r="DS11" s="40"/>
-      <c r="DT11" s="40"/>
+      <c r="L11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="33"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="35"/>
+      <c r="AJ11" s="34"/>
+      <c r="AK11" s="35"/>
+      <c r="AL11" s="34"/>
+      <c r="AM11" s="35"/>
+      <c r="AN11" s="34"/>
+      <c r="AO11" s="35"/>
+      <c r="AP11" s="34"/>
+      <c r="AQ11" s="35"/>
+      <c r="AR11" s="34"/>
+      <c r="AS11" s="35"/>
+      <c r="AT11" s="34"/>
+      <c r="AU11" s="35"/>
+      <c r="AV11" s="34"/>
+      <c r="AW11" s="35"/>
+      <c r="AX11" s="34"/>
+      <c r="AY11" s="35"/>
+      <c r="AZ11" s="34"/>
+      <c r="BA11" s="35"/>
+      <c r="BB11" s="34"/>
+      <c r="BC11" s="35"/>
+      <c r="BD11" s="34"/>
+      <c r="BE11" s="35"/>
+      <c r="BF11" s="34"/>
+      <c r="BG11" s="35"/>
+      <c r="BH11" s="34"/>
+      <c r="BI11" s="35"/>
+      <c r="BJ11" s="34"/>
+      <c r="BK11" s="35"/>
+      <c r="BL11" s="34"/>
+      <c r="BM11" s="35"/>
+      <c r="BN11" s="34"/>
+      <c r="BO11" s="35"/>
+      <c r="BP11" s="34"/>
+      <c r="BQ11" s="35"/>
+      <c r="BR11" s="34"/>
+      <c r="BS11" s="35"/>
+      <c r="BT11" s="34"/>
+      <c r="BU11" s="35"/>
+      <c r="BV11" s="34"/>
+      <c r="BW11" s="35"/>
+      <c r="BX11" s="34"/>
+      <c r="BY11" s="35"/>
+      <c r="BZ11" s="36"/>
+      <c r="CA11" s="35"/>
+      <c r="CB11" s="34"/>
+      <c r="CC11" s="35"/>
+      <c r="CD11" s="37"/>
+      <c r="CE11" s="35"/>
+      <c r="CF11" s="34"/>
+      <c r="CG11" s="35"/>
+      <c r="CH11" s="36"/>
+      <c r="CI11" s="35"/>
+      <c r="CJ11" s="34"/>
+      <c r="CK11" s="35"/>
+      <c r="CL11" s="34"/>
+      <c r="CM11" s="35"/>
+      <c r="CN11" s="34"/>
+      <c r="CO11" s="35"/>
+      <c r="CP11" s="34"/>
+      <c r="CQ11" s="35"/>
+      <c r="CR11" s="34"/>
+      <c r="CS11" s="35"/>
+      <c r="CT11" s="34"/>
+      <c r="CU11" s="35"/>
+      <c r="CV11" s="34"/>
+      <c r="CW11" s="35"/>
+      <c r="CX11" s="34"/>
+      <c r="CY11" s="33"/>
+      <c r="CZ11" s="34"/>
+      <c r="DA11" s="33"/>
+      <c r="DB11" s="34"/>
+      <c r="DC11" s="33"/>
+      <c r="DD11" s="34"/>
+      <c r="DE11" s="33"/>
+      <c r="DF11" s="34"/>
+      <c r="DG11" s="33"/>
+      <c r="DH11" s="34"/>
+      <c r="DI11" s="33"/>
+      <c r="DJ11" s="34"/>
+      <c r="DK11" s="34"/>
+      <c r="DL11" s="34"/>
+      <c r="DM11" s="34"/>
+      <c r="DN11" s="38"/>
+      <c r="DO11" s="34"/>
+      <c r="DP11" s="39"/>
+      <c r="DQ11" s="39"/>
+      <c r="DR11" s="39"/>
+      <c r="DS11" s="39"/>
+      <c r="DT11" s="39"/>
     </row>
     <row r="12" spans="1:124" ht="79.8" customHeight="1">
       <c r="A12" s="12"/>
@@ -1606,7 +1611,9 @@
       <c r="I12" s="21"/>
       <c r="J12" s="20"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="6"/>
+      <c r="L12" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M12" s="11"/>
       <c r="N12" s="6"/>
       <c r="O12" s="11"/>
@@ -1641,7 +1648,9 @@
       <c r="I13" s="21"/>
       <c r="J13" s="20"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="6"/>
+      <c r="L13" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M13" s="11"/>
       <c r="N13" s="6"/>
       <c r="O13" s="11"/>
@@ -1662,7 +1671,7 @@
       <c r="B14" s="3">
         <v>7</v>
       </c>
-      <c r="C14" s="41"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="3" t="s">
         <v>42</v>
       </c>
@@ -1677,7 +1686,9 @@
       <c r="I14" s="21"/>
       <c r="J14" s="20"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="6"/>
+      <c r="L14" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M14" s="11"/>
       <c r="N14" s="6"/>
       <c r="O14" s="11"/>
@@ -1713,7 +1724,9 @@
       <c r="I15" s="21"/>
       <c r="J15" s="20"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="6"/>
+      <c r="L15" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M15" s="11"/>
       <c r="N15" s="6"/>
       <c r="O15" s="11"/>
@@ -1749,7 +1762,9 @@
       <c r="I16" s="21"/>
       <c r="J16" s="20"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="6"/>
+      <c r="L16" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M16" s="11"/>
       <c r="N16" s="6"/>
       <c r="O16" s="11"/>
@@ -1784,7 +1799,9 @@
       <c r="I17" s="21"/>
       <c r="J17" s="20"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="6"/>
+      <c r="L17" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M17" s="11"/>
       <c r="N17" s="6"/>
       <c r="O17" s="11"/>
@@ -3009,6 +3026,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3016,15 +3039,9 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L12:L42 R12:R42 P12:P42 T12:T42 T8:T10 P8:P10 R8:R10 L8:L10 N8:N10 N12:N42">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="R12:R42 P12:P42 T12:T42 T8:T10 P8:P10 R8:R10 N12:N42 N8:N10 L8:L42">
       <formula1>Result</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" sqref="AT11 AH11 AF11 Z11 X11 V11 T11 R11 P11 N11 CJ11 CB11 DJ11:DT11 DH11 DF11 DD11 DB11 CZ11 CX11 CV11 CT11 CR11 CP11 CN11 CL11 CH11 CF11 BZ11 BX11 BV11 BT11 BR11 BP11 BN11 BL11 BJ11 BH11 BF11 BD11 BB11 AZ11 AX11 AV11 AR11 AP11 AN11 AL11 AJ11 AD11 AB11">
